--- a/검은사막 - 신규 환상마 기획서/board_object_skill_probability.xlsx
+++ b/검은사막 - 신규 환상마 기획서/board_object_skill_probability.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28227"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SinWooChi\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\SinWooChi\portfolio\검은사막 - 신규 환상마 기획서\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EE43E1BD-D7E8-45C0-B112-4214461514A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3E3569E8-4A38-4C21-8D74-F8BB705FC7DA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4110" yWindow="2970" windowWidth="21600" windowHeight="14460" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="board_object_skill_probability" sheetId="1" r:id="rId1"/>
@@ -903,37 +903,39 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A2:H16"/>
   <sheetViews>
-    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="5.625" style="1" customWidth="1"/>
-    <col min="2" max="2" width="19.125" style="1" customWidth="1"/>
-    <col min="3" max="3" width="40.875" style="1" customWidth="1"/>
-    <col min="4" max="6" width="15.625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="40.625" style="1" customWidth="1"/>
+    <col min="1" max="1" width="5.59765625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="19.09765625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="40.8984375" style="1" customWidth="1"/>
+    <col min="4" max="6" width="15.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="40.59765625" style="1" customWidth="1"/>
     <col min="8" max="8" width="25.5" style="1" customWidth="1"/>
     <col min="9" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:8" ht="41.25" x14ac:dyDescent="0.7">
+    <row r="2" spans="1:8" ht="40.200000000000003" x14ac:dyDescent="0.8">
       <c r="A2" s="2"/>
       <c r="B2" s="5" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="3"/>
       <c r="B3" s="6" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" s="4" customFormat="1" x14ac:dyDescent="0.4">
       <c r="B6" s="7" t="s">
         <v>0</v>
       </c>
@@ -956,7 +958,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B7" s="19" t="s">
         <v>14</v>
       </c>
@@ -971,7 +973,7 @@
       <c r="G7" s="24"/>
       <c r="H7" s="25"/>
     </row>
-    <row r="8" spans="1:8" ht="49.5" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" ht="52.2" x14ac:dyDescent="0.4">
       <c r="B8" s="18" t="s">
         <v>18</v>
       </c>
@@ -994,7 +996,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B9" s="10" t="s">
         <v>34</v>
       </c>
@@ -1009,7 +1011,7 @@
       <c r="G9" s="27"/>
       <c r="H9" s="28"/>
     </row>
-    <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B10" s="18" t="s">
         <v>28</v>
       </c>
@@ -1032,7 +1034,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B11" s="10" t="s">
         <v>33</v>
       </c>
@@ -1047,7 +1049,7 @@
       <c r="G11" s="27"/>
       <c r="H11" s="28"/>
     </row>
-    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B12" s="18" t="s">
         <v>19</v>
       </c>
@@ -1070,7 +1072,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B13" s="29" t="s">
         <v>69</v>
       </c>
@@ -1093,7 +1095,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B14" s="30"/>
       <c r="C14" s="32"/>
       <c r="D14" s="34"/>
@@ -1106,7 +1108,7 @@
       </c>
       <c r="H14" s="34"/>
     </row>
-    <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B15" s="29" t="s">
         <v>61</v>
       </c>
@@ -1129,7 +1131,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="16" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" ht="33" customHeight="1" x14ac:dyDescent="0.4">
       <c r="B16" s="30"/>
       <c r="C16" s="32"/>
       <c r="D16" s="34"/>
@@ -1168,22 +1170,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E38DD5D5-5595-45EA-8634-7EAE55B82575}">
   <dimension ref="A1:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView view="pageBreakPreview" zoomScale="60" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="17.399999999999999" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="2" width="15.375" style="13" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="15.375" style="13" customWidth="1"/>
-    <col min="4" max="4" width="19.875" style="13" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="19.875" style="13" customWidth="1"/>
-    <col min="6" max="6" width="10.625" style="13" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.875" style="13" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="15.3984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="15.3984375" style="13" customWidth="1"/>
+    <col min="4" max="4" width="19.8984375" style="13" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="19.8984375" style="13" customWidth="1"/>
+    <col min="6" max="6" width="10.59765625" style="13" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="15.8984375" style="13" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.5" style="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="17" customFormat="1" ht="13.5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="17" customFormat="1" ht="15.6" x14ac:dyDescent="0.35">
       <c r="A1" s="16" t="s">
         <v>17</v>
       </c>
@@ -1199,7 +1201,7 @@
       <c r="G1" s="16"/>
       <c r="H1" s="16"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A2" s="14" t="s">
         <v>14</v>
       </c>
@@ -1225,7 +1227,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A3" s="13">
         <v>1</v>
       </c>
@@ -1251,7 +1253,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A4" s="13">
         <v>2</v>
       </c>
@@ -1277,7 +1279,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A5" s="13">
         <v>3</v>
       </c>
@@ -1303,7 +1305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A6" s="13">
         <v>4</v>
       </c>
@@ -1329,7 +1331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A7" s="13">
         <v>5</v>
       </c>
@@ -1355,7 +1357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A8" s="13">
         <v>6</v>
       </c>
@@ -1381,7 +1383,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A9" s="13">
         <v>7</v>
       </c>
@@ -1407,7 +1409,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A10" s="13">
         <v>8</v>
       </c>
@@ -1433,7 +1435,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A11" s="13">
         <v>9</v>
       </c>
@@ -1459,7 +1461,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A12" s="13">
         <v>10</v>
       </c>
@@ -1485,7 +1487,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A13" s="13">
         <v>11</v>
       </c>
@@ -1511,7 +1513,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A14" s="13">
         <v>12</v>
       </c>
@@ -1537,7 +1539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A15" s="13">
         <v>13</v>
       </c>
@@ -1563,7 +1565,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A16" s="13">
         <v>14</v>
       </c>
@@ -1589,7 +1591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="17" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A17" s="13">
         <v>15</v>
       </c>
@@ -1615,7 +1617,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A18" s="13">
         <v>16</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A19" s="13">
         <v>17</v>
       </c>
@@ -1667,7 +1669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A20" s="13">
         <v>18</v>
       </c>
@@ -1693,7 +1695,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A21" s="13">
         <v>19</v>
       </c>
@@ -1719,7 +1721,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="22" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A22" s="13">
         <v>20</v>
       </c>
@@ -1745,7 +1747,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A23" s="13">
         <v>21</v>
       </c>
@@ -1771,7 +1773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A24" s="13">
         <v>22</v>
       </c>
@@ -1797,7 +1799,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="25" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A25" s="13">
         <v>23</v>
       </c>
@@ -1823,7 +1825,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="26" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A26" s="13">
         <v>24</v>
       </c>
@@ -1849,7 +1851,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="27" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A27" s="13">
         <v>25</v>
       </c>
@@ -1875,7 +1877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:8" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:8" x14ac:dyDescent="0.4">
       <c r="A28" s="13">
         <v>26</v>
       </c>
